--- a/Examples/AHP_Car_Selection/carModel_Results.xlsx
+++ b/Examples/AHP_Car_Selection/carModel_Results.xlsx
@@ -321,7 +321,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5629275" cy="2790825"/>
+    <ext cx="5534025" cy="2790825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
